--- a/poznamky/wingate-test/windgate-on-relite-trainer.xlsx
+++ b/poznamky/wingate-test/windgate-on-relite-trainer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="3060" windowWidth="35660" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="24260" yWindow="4420" windowWidth="35660" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Wingate Test (modified)" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Distance</t>
   </si>
@@ -158,18 +158,29 @@
   <si>
     <t>Experimental Wingate test using home trainer (Elite Qubo Digital B+)</t>
   </si>
+  <si>
+    <t>1kp</t>
+  </si>
+  <si>
+    <t>equals ?</t>
+  </si>
+  <si>
+    <t>protocol constant</t>
+  </si>
+  <si>
+    <t>Power Mode</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,8 +231,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +258,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -264,35 +288,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -453,21 +475,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="177">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -544,6 +564,18 @@
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -620,6 +652,18 @@
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,499 +703,6 @@
           <c:h val="0.794712772972344"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Min</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A$3:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$K$3:$K$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>119.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>119.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Max</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A$3:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$J$3:$J$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1002.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2046625080"/>
-        <c:axId val="-2061071496"/>
-      </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1955,8 +1506,501 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2046625080"/>
-        <c:axId val="-2061071496"/>
+        <c:axId val="-2080316536"/>
+        <c:axId val="-2080311208"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$K$3:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$J$3:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2080316536"/>
+        <c:axId val="-2080311208"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2139,11 +2183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2046162872"/>
-        <c:axId val="-2046123384"/>
+        <c:axId val="-2080299736"/>
+        <c:axId val="-2080305336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2046625080"/>
+        <c:axId val="-2080316536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -2167,14 +2211,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061071496"/>
+        <c:crossAx val="-2080311208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
         <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2061071496"/>
+        <c:axId val="-2080311208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1300.0"/>
@@ -2228,7 +2272,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2239,12 +2283,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2046625080"/>
+        <c:crossAx val="-2080316536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2046123384"/>
+        <c:axId val="-2080305336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300.0"/>
@@ -2294,12 +2338,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2046162872"/>
+        <c:crossAx val="-2080299736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2046162872"/>
+        <c:axId val="-2080299736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,7 +2372,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2046123384"/>
+        <c:crossAx val="-2080305336"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -2350,13 +2395,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2708,10 +2753,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2721,184 +2766,222 @@
     <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>64</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
+      <c r="G4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="6">
+        <f>B4*E6*H6</f>
+        <v>240</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <f>MAX(Sheet3!A:A)+1</f>
         <v>21</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <f>MAX(Sheet3!B:B)</f>
         <v>0.193</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="14">
+        <v>50</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <f>MAX(Sheet3!D3:D23)</f>
         <v>1002</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="9">
         <f>B7/B4</f>
         <v>15.65625</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8" t="s">
+      <c r="G7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="10">
+        <f>MATCH(MAX(Sheet3!D3:D23),Sheet3!D3:D23,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <f>SUM(Sheet3!D3:D23)/B5</f>
         <v>694.57142857142856</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <f>B8/B4</f>
         <v>10.852678571428571</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10">
-        <f>100*(B7-B11)/B7</f>
+      <c r="B9" s="8">
+        <f>100*(B7-B10)/B7</f>
         <v>88.123752495009981</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="13">
-        <f>(B7-B11)/(B12-B13)</f>
+      <c r="E9" s="9">
+        <f>(B7-B10)/(H10-H7)</f>
         <v>63.071428571428569</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B10" s="10">
         <f>MIN(Sheet3!D3:D23)</f>
         <v>119</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="14" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="14">
+      <c r="H10" s="10">
         <f>MATCH(MIN(Sheet3!D3:D23),Sheet3!D3:D23,0)</f>
         <v>20</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="14">
-        <f>MATCH(MAX(Sheet3!D3:D23),Sheet3!D3:D23,0)</f>
-        <v>6</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="I10" s="10" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2987,7 +3070,7 @@
         <v>1002</v>
       </c>
       <c r="I3">
-        <f>IF(ISNUMBER(B3),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B3),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J3" t="e">
@@ -2995,7 +3078,7 @@
         <v>#N/A</v>
       </c>
       <c r="K3" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D3,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D3,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3027,7 +3110,7 @@
         <v>1002</v>
       </c>
       <c r="I4">
-        <f>IF(ISNUMBER(B4),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B4),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J4" t="e">
@@ -3035,7 +3118,7 @@
         <v>#N/A</v>
       </c>
       <c r="K4" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D4,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D4,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3067,7 +3150,7 @@
         <v>1002</v>
       </c>
       <c r="I5">
-        <f>IF(ISNUMBER(B5),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B5),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J5" t="e">
@@ -3075,7 +3158,7 @@
         <v>#N/A</v>
       </c>
       <c r="K5" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D5,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D5,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3107,7 +3190,7 @@
         <v>1002</v>
       </c>
       <c r="I6">
-        <f>IF(ISNUMBER(B6),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B6),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J6" t="e">
@@ -3115,7 +3198,7 @@
         <v>#N/A</v>
       </c>
       <c r="K6" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D6,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D6,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3147,7 +3230,7 @@
         <v>1002</v>
       </c>
       <c r="I7">
-        <f>IF(ISNUMBER(B7),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B7),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J7" t="e">
@@ -3155,7 +3238,7 @@
         <v>#N/A</v>
       </c>
       <c r="K7" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D7,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D7,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3187,7 +3270,7 @@
         <v>1002</v>
       </c>
       <c r="I8">
-        <f>IF(ISNUMBER(B8),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B8),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J8">
@@ -3195,7 +3278,7 @@
         <v>1002</v>
       </c>
       <c r="K8" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D8,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D8,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3227,7 +3310,7 @@
         <v>1002</v>
       </c>
       <c r="I9">
-        <f>IF(ISNUMBER(B9),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B9),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J9" t="e">
@@ -3235,7 +3318,7 @@
         <v>#N/A</v>
       </c>
       <c r="K9" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D9,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D9,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3267,7 +3350,7 @@
         <v>1002</v>
       </c>
       <c r="I10">
-        <f>IF(ISNUMBER(B10),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B10),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J10" t="e">
@@ -3275,7 +3358,7 @@
         <v>#N/A</v>
       </c>
       <c r="K10" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D10,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D10,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3307,7 +3390,7 @@
         <v>1002</v>
       </c>
       <c r="I11">
-        <f>IF(ISNUMBER(B11),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B11),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J11" t="e">
@@ -3315,7 +3398,7 @@
         <v>#N/A</v>
       </c>
       <c r="K11" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D11,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D11,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3347,7 +3430,7 @@
         <v>1002</v>
       </c>
       <c r="I12">
-        <f>IF(ISNUMBER(B12),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B12),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J12" t="e">
@@ -3355,7 +3438,7 @@
         <v>#N/A</v>
       </c>
       <c r="K12" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D12,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D12,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3387,7 +3470,7 @@
         <v>1002</v>
       </c>
       <c r="I13">
-        <f>IF(ISNUMBER(B13),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B13),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J13" t="e">
@@ -3395,7 +3478,7 @@
         <v>#N/A</v>
       </c>
       <c r="K13" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D13,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D13,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3427,7 +3510,7 @@
         <v>1002</v>
       </c>
       <c r="I14">
-        <f>IF(ISNUMBER(B14),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B14),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J14" t="e">
@@ -3435,7 +3518,7 @@
         <v>#N/A</v>
       </c>
       <c r="K14" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D14,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D14,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3467,7 +3550,7 @@
         <v>1002</v>
       </c>
       <c r="I15">
-        <f>IF(ISNUMBER(B15),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B15),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J15" t="e">
@@ -3475,7 +3558,7 @@
         <v>#N/A</v>
       </c>
       <c r="K15" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D15,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D15,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3507,7 +3590,7 @@
         <v>1002</v>
       </c>
       <c r="I16">
-        <f>IF(ISNUMBER(B16),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B16),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J16" t="e">
@@ -3515,7 +3598,7 @@
         <v>#N/A</v>
       </c>
       <c r="K16" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D16,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D16,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3547,7 +3630,7 @@
         <v>1002</v>
       </c>
       <c r="I17">
-        <f>IF(ISNUMBER(B17),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B17),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J17" t="e">
@@ -3555,7 +3638,7 @@
         <v>#N/A</v>
       </c>
       <c r="K17" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D17,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D17,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3587,7 +3670,7 @@
         <v>1002</v>
       </c>
       <c r="I18">
-        <f>IF(ISNUMBER(B18),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B18),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J18" t="e">
@@ -3595,7 +3678,7 @@
         <v>#N/A</v>
       </c>
       <c r="K18" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D18,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D18,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3627,7 +3710,7 @@
         <v>1002</v>
       </c>
       <c r="I19">
-        <f>IF(ISNUMBER(B19),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B19),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J19" t="e">
@@ -3635,7 +3718,7 @@
         <v>#N/A</v>
       </c>
       <c r="K19" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D19,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D19,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3667,7 +3750,7 @@
         <v>1002</v>
       </c>
       <c r="I20">
-        <f>IF(ISNUMBER(B20),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B20),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J20" t="e">
@@ -3675,7 +3758,7 @@
         <v>#N/A</v>
       </c>
       <c r="K20" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D20,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D20,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3707,7 +3790,7 @@
         <v>1002</v>
       </c>
       <c r="I21">
-        <f>IF(ISNUMBER(B21),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B21),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J21" t="e">
@@ -3715,7 +3798,7 @@
         <v>#N/A</v>
       </c>
       <c r="K21" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D21,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D21,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3747,7 +3830,7 @@
         <v>1002</v>
       </c>
       <c r="I22">
-        <f>IF(ISNUMBER(B22),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B22),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J22" t="e">
@@ -3755,7 +3838,7 @@
         <v>#N/A</v>
       </c>
       <c r="K22">
-        <f>IF('Wingate Test (modified)'!$B$11=D22,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D22,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
     </row>
@@ -3787,7 +3870,7 @@
         <v>1002</v>
       </c>
       <c r="I23">
-        <f>IF(ISNUMBER(B23),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B23),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
       <c r="J23" t="e">
@@ -3795,7 +3878,7 @@
         <v>#N/A</v>
       </c>
       <c r="K23">
-        <f>IF('Wingate Test (modified)'!$B$11=D23,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D23,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>119</v>
       </c>
     </row>
@@ -3809,7 +3892,7 @@
         <v>#N/A</v>
       </c>
       <c r="I24" t="e">
-        <f>IF(ISNUMBER(B24),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B24),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J24" t="e">
@@ -3817,7 +3900,7 @@
         <v>#N/A</v>
       </c>
       <c r="K24" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D24,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D24,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3831,7 +3914,7 @@
         <v>#N/A</v>
       </c>
       <c r="I25" t="e">
-        <f>IF(ISNUMBER(B25),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B25),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J25" t="e">
@@ -3839,7 +3922,7 @@
         <v>#N/A</v>
       </c>
       <c r="K25" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D25,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D25,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3853,7 +3936,7 @@
         <v>#N/A</v>
       </c>
       <c r="I26" t="e">
-        <f>IF(ISNUMBER(B26),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B26),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J26" t="e">
@@ -3861,7 +3944,7 @@
         <v>#N/A</v>
       </c>
       <c r="K26" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D26,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D26,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3875,7 +3958,7 @@
         <v>#N/A</v>
       </c>
       <c r="I27" t="e">
-        <f>IF(ISNUMBER(B27),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B27),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J27" t="e">
@@ -3883,7 +3966,7 @@
         <v>#N/A</v>
       </c>
       <c r="K27" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D27,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D27,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3897,7 +3980,7 @@
         <v>#N/A</v>
       </c>
       <c r="I28" t="e">
-        <f>IF(ISNUMBER(B28),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B28),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J28" t="e">
@@ -3905,7 +3988,7 @@
         <v>#N/A</v>
       </c>
       <c r="K28" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D28,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D28,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3919,7 +4002,7 @@
         <v>#N/A</v>
       </c>
       <c r="I29" t="e">
-        <f>IF(ISNUMBER(B29),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B29),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J29" t="e">
@@ -3927,7 +4010,7 @@
         <v>#N/A</v>
       </c>
       <c r="K29" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D29,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D29,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3941,7 +4024,7 @@
         <v>#N/A</v>
       </c>
       <c r="I30" t="e">
-        <f>IF(ISNUMBER(B30),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B30),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J30" t="e">
@@ -3949,7 +4032,7 @@
         <v>#N/A</v>
       </c>
       <c r="K30" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D30,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D30,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3963,7 +4046,7 @@
         <v>#N/A</v>
       </c>
       <c r="I31" t="e">
-        <f>IF(ISNUMBER(B31),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B31),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J31" t="e">
@@ -3971,7 +4054,7 @@
         <v>#N/A</v>
       </c>
       <c r="K31" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D31,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D31,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3985,7 +4068,7 @@
         <v>#N/A</v>
       </c>
       <c r="I32" t="e">
-        <f>IF(ISNUMBER(B32),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B32),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J32" t="e">
@@ -3993,7 +4076,7 @@
         <v>#N/A</v>
       </c>
       <c r="K32" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D32,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D32,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4007,7 +4090,7 @@
         <v>#N/A</v>
       </c>
       <c r="I33" t="e">
-        <f>IF(ISNUMBER(B33),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B33),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J33" t="e">
@@ -4015,7 +4098,7 @@
         <v>#N/A</v>
       </c>
       <c r="K33" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D33,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D33,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4029,7 +4112,7 @@
         <v>#N/A</v>
       </c>
       <c r="I34" t="e">
-        <f>IF(ISNUMBER(B34),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B34),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J34" t="e">
@@ -4037,7 +4120,7 @@
         <v>#N/A</v>
       </c>
       <c r="K34" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D34,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D34,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4051,7 +4134,7 @@
         <v>#N/A</v>
       </c>
       <c r="I35" t="e">
-        <f>IF(ISNUMBER(B35),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B35),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J35" t="e">
@@ -4059,7 +4142,7 @@
         <v>#N/A</v>
       </c>
       <c r="K35" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D35,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D35,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4073,7 +4156,7 @@
         <v>#N/A</v>
       </c>
       <c r="I36" t="e">
-        <f>IF(ISNUMBER(B36),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B36),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J36" t="e">
@@ -4081,7 +4164,7 @@
         <v>#N/A</v>
       </c>
       <c r="K36" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D36,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D36,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4095,7 +4178,7 @@
         <v>#N/A</v>
       </c>
       <c r="I37" t="e">
-        <f>IF(ISNUMBER(B37),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B37),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J37" t="e">
@@ -4103,7 +4186,7 @@
         <v>#N/A</v>
       </c>
       <c r="K37" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D37,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D37,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4117,7 +4200,7 @@
         <v>#N/A</v>
       </c>
       <c r="I38" t="e">
-        <f>IF(ISNUMBER(B38),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B38),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J38" t="e">
@@ -4125,7 +4208,7 @@
         <v>#N/A</v>
       </c>
       <c r="K38" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D38,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D38,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4139,7 +4222,7 @@
         <v>#N/A</v>
       </c>
       <c r="I39" t="e">
-        <f>IF(ISNUMBER(B39),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B39),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J39" t="e">
@@ -4147,7 +4230,7 @@
         <v>#N/A</v>
       </c>
       <c r="K39" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D39,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D39,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4161,7 +4244,7 @@
         <v>#N/A</v>
       </c>
       <c r="I40" t="e">
-        <f>IF(ISNUMBER(B40),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B40),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J40" t="e">
@@ -4169,7 +4252,7 @@
         <v>#N/A</v>
       </c>
       <c r="K40" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D40,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D40,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4183,7 +4266,7 @@
         <v>#N/A</v>
       </c>
       <c r="I41" t="e">
-        <f>IF(ISNUMBER(B41),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B41),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J41" t="e">
@@ -4191,7 +4274,7 @@
         <v>#N/A</v>
       </c>
       <c r="K41" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D41,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D41,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4205,7 +4288,7 @@
         <v>#N/A</v>
       </c>
       <c r="I42" t="e">
-        <f>IF(ISNUMBER(B42),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B42),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J42" t="e">
@@ -4213,7 +4296,7 @@
         <v>#N/A</v>
       </c>
       <c r="K42" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D42,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D42,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4227,7 +4310,7 @@
         <v>#N/A</v>
       </c>
       <c r="I43" t="e">
-        <f>IF(ISNUMBER(B43),'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF(ISNUMBER(B43),'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J43" t="e">
@@ -4235,13 +4318,13 @@
         <v>#N/A</v>
       </c>
       <c r="K43" t="e">
-        <f>IF('Wingate Test (modified)'!$B$11=D43,'Wingate Test (modified)'!$B$11,NA())</f>
+        <f>IF('Wingate Test (modified)'!$B$10=D43,'Wingate Test (modified)'!$B$10,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="7:11">
       <c r="G44" t="str">
-        <f>IF(ISNUMBER(A44),'Wingate Test (modified)'!B49,"")</f>
+        <f>IF(ISNUMBER(A44),'Wingate Test (modified)'!B47,"")</f>
         <v/>
       </c>
     </row>
